--- a/myData/JHL beta gal data 3.1.1.xlsx
+++ b/myData/JHL beta gal data 3.1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylee/Desktop/research/Jenny_MutantSensitivity/betaGal-analysis/myData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19D6DF8-34ED-5D49-8652-0F4B7E89E705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E596E1-22D7-2E46-A882-7375F71E7A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="22040" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="22040" windowHeight="14120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:I87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3242,7 +3242,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
